--- a/Охрана/Книга1.xlsx
+++ b/Охрана/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Pтабл</t>
   </si>
@@ -32,52 +32,100 @@
     <t>Ом/см</t>
   </si>
   <si>
-    <t>Кп.с</t>
-  </si>
-  <si>
-    <t>Кп.т</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) </t>
-  </si>
-  <si>
     <t>Ом*см</t>
   </si>
   <si>
-    <t xml:space="preserve">5) </t>
-  </si>
-  <si>
-    <t>6)</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
     <t>см</t>
   </si>
   <si>
-    <t>7)</t>
-  </si>
-  <si>
-    <t>8)</t>
-  </si>
-  <si>
     <t>Ом</t>
   </si>
   <si>
-    <t>9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11) </t>
-  </si>
-  <si>
-    <t>13)</t>
+    <t>Rроз.н</t>
+  </si>
+  <si>
+    <t>р_розр.m</t>
+  </si>
+  <si>
+    <t>р_розр.n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Rроз.Т</t>
+  </si>
+  <si>
+    <t>L_ст</t>
+  </si>
+  <si>
+    <t>n_T</t>
+  </si>
+  <si>
+    <t>n_T.Е</t>
+  </si>
+  <si>
+    <t>L_З.С</t>
+  </si>
+  <si>
+    <t>R_З.С</t>
+  </si>
+  <si>
+    <t>0.19/0.19</t>
+  </si>
+  <si>
+    <t>N_Е.З.С</t>
+  </si>
+  <si>
+    <t>R_розр.С</t>
+  </si>
+  <si>
+    <t>Rзаг.розр</t>
+  </si>
+  <si>
+    <t>табл 4.2</t>
+  </si>
+  <si>
+    <t>табл.4.3</t>
+  </si>
+  <si>
+    <t>K_ПС</t>
+  </si>
+  <si>
+    <t>К_ПТ</t>
+  </si>
+  <si>
+    <t>h_г</t>
+  </si>
+  <si>
+    <t>h_b</t>
+  </si>
+  <si>
+    <t>h_з</t>
+  </si>
+  <si>
+    <t>l_mр</t>
+  </si>
+  <si>
+    <t>d_mр</t>
+  </si>
+  <si>
+    <t>b_c</t>
+  </si>
+  <si>
+    <t>клім.зона</t>
+  </si>
+  <si>
+    <t>Rз</t>
+  </si>
+  <si>
+    <t>ню_Е_Т</t>
+  </si>
+  <si>
+    <t>ню_Е_З_С</t>
   </si>
 </sst>
 </file>
@@ -396,17 +444,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J1">
         <v>500</v>
@@ -414,102 +462,164 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="G5">
         <v>30000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <f>0.8</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <f>80</f>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <f>C3*C5</f>
+        <f>G5*G7</f>
         <v>60000</v>
       </c>
       <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <f>5</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <f>C3*C4</f>
+        <f>G6*G5</f>
         <v>150000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <f>80+J1/2</f>
+        <f>J6+J1/2</f>
         <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <f>0.366*(B7/J1)*(LN((2*J1)/J2)+1/2*LN(((4*B9+J1)/4*B9-J1)))</f>
         <v>534.62214479434999</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <f>0.36</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <f>J1</f>
+        <f>J1*1</f>
         <v>500</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <f>0.19/0.19</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <f>B10/4</f>
@@ -521,7 +631,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <f>B10/(4*0.36)</f>
@@ -530,11 +640,55 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>B10/(B13*0.36)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>1.05*B11*(B13-1)</f>
+        <v>194389.32362294011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>0.366*((B14/B15)*LN((2*B15^2)/(0.8*5)))</f>
+        <v>1.7820576828828292E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <f>1.05*500*(C15)</f>
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f>B16/(1)</f>
+        <v>1.7820576828828292E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f>1/((1/B10)+(1/B18))</f>
+        <v>1.7820570888691772E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Охрана/Книга1.xlsx
+++ b/Охрана/Книга1.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
